--- a/References/Codebook for datatables V2.xlsx
+++ b/References/Codebook for datatables V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xueti\Dropbox (University of Michigan)\Umich\class\term 1\625\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xueti\Dropbox (University of Michigan)\Umich\class\term 1\625\Final\625_Group5\625_Group5\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D158E-520C-4DB2-8719-F716F78BE70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB2EA88-4D2F-4891-8F97-9B5733933031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1095" windowWidth="23595" windowHeight="13530" tabRatio="735" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20475" windowHeight="14595" tabRatio="735" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dietary All" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,14 @@
     <sheet name="Laboratory" sheetId="7" r:id="rId5"/>
     <sheet name="Questionnaire All" sheetId="8" r:id="rId6"/>
     <sheet name="Questionnaire Indicator" sheetId="9" r:id="rId7"/>
+    <sheet name="Selection Results" sheetId="10" r:id="rId8"/>
+    <sheet name="0.3" sheetId="12" r:id="rId9"/>
+    <sheet name="0.4" sheetId="13" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'0.3'!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Selection Results'!$A$2:$C$67</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="2202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3786" uniqueCount="2404">
   <si>
     <t>1999-2000</t>
   </si>
@@ -6637,13 +6644,619 @@
   </si>
   <si>
     <t>Including all drugs, not so useful. Drop now</t>
+  </si>
+  <si>
+    <t>DMDCITZN</t>
+  </si>
+  <si>
+    <t>SDMVSTRA</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Citizenship status is reported using two codes: 1) Citizen by birth or naturalization; or 2) Not a citizen of the U.S. Persons who were born in the U.S. or U.S. territories who acquired citizenship at birth were coded as U.S. citizens.</t>
+  </si>
+  <si>
+    <t>DMDHRGND</t>
+  </si>
+  <si>
+    <t>HOQ065</t>
+  </si>
+  <si>
+    <t>Home owned, bought, rented, other</t>
+  </si>
+  <si>
+    <t>HUQ010</t>
+  </si>
+  <si>
+    <t>Overall health</t>
+  </si>
+  <si>
+    <t>HUQ030</t>
+  </si>
+  <si>
+    <t>Routine place to go for healthcare</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2013-2014/HUQ_H.htm#HUQ030</t>
+  </si>
+  <si>
+    <t>RIAGENDR</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Gender of the household reference person</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/demo_g.htm</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2005-2006/DEMO_D.htm#DMDHRGND</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/demo_h.htm#RIAGENDR</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2013-2014/HOQ_H.htm#HOQ065</t>
+  </si>
+  <si>
+    <t>HUQ020</t>
+  </si>
+  <si>
+    <t>IMQ020</t>
+  </si>
+  <si>
+    <t>HUQ071</t>
+  </si>
+  <si>
+    <t>MCQ010</t>
+  </si>
+  <si>
+    <t>MCQ053</t>
+  </si>
+  <si>
+    <t>BMDSTATS</t>
+  </si>
+  <si>
+    <t>DBQ197</t>
+  </si>
+  <si>
+    <t>DMDHHSIZ</t>
+  </si>
+  <si>
+    <t>FSD032A</t>
+  </si>
+  <si>
+    <t>HIQ011</t>
+  </si>
+  <si>
+    <t>HUQ090</t>
+  </si>
+  <si>
+    <t>RIDAGEYR</t>
+  </si>
+  <si>
+    <t>RIDRETH1</t>
+  </si>
+  <si>
+    <t>SMD410</t>
+  </si>
+  <si>
+    <t>HUQ050</t>
+  </si>
+  <si>
+    <t>IMQ011</t>
+  </si>
+  <si>
+    <t>RDQ070</t>
+  </si>
+  <si>
+    <t>RDQ140</t>
+  </si>
+  <si>
+    <t>SIAINTRP</t>
+  </si>
+  <si>
+    <t>FIAINTRP</t>
+  </si>
+  <si>
+    <t>FSD032B</t>
+  </si>
+  <si>
+    <t>FSD032C</t>
+  </si>
+  <si>
+    <t>HOD060</t>
+  </si>
+  <si>
+    <t>MCQ140</t>
+  </si>
+  <si>
+    <t>CBD090</t>
+  </si>
+  <si>
+    <t>CBD130</t>
+  </si>
+  <si>
+    <t>DMDFMSIZ</t>
+  </si>
+  <si>
+    <t>DMDHHSZE</t>
+  </si>
+  <si>
+    <t>DR1DAY</t>
+  </si>
+  <si>
+    <t>DRQSDIET</t>
+  </si>
+  <si>
+    <t>HOQ070</t>
+  </si>
+  <si>
+    <t>INDHHIN2</t>
+  </si>
+  <si>
+    <t>OHQ030</t>
+  </si>
+  <si>
+    <t>OHQ033</t>
+  </si>
+  <si>
+    <t>OHQ845</t>
+  </si>
+  <si>
+    <t>AUQ131</t>
+  </si>
+  <si>
+    <t>BMXBMI</t>
+  </si>
+  <si>
+    <t>DBD090</t>
+  </si>
+  <si>
+    <t>DBQ095Z</t>
+  </si>
+  <si>
+    <t>DR1_300</t>
+  </si>
+  <si>
+    <t>DR1TALCO</t>
+  </si>
+  <si>
+    <t>DR1TM221</t>
+  </si>
+  <si>
+    <t>HOD040</t>
+  </si>
+  <si>
+    <t>HUQ051</t>
+  </si>
+  <si>
+    <t>RIDAGEMN</t>
+  </si>
+  <si>
+    <t>RIDRETH2</t>
+  </si>
+  <si>
+    <t>AUQ054</t>
+  </si>
+  <si>
+    <t>CBD131</t>
+  </si>
+  <si>
+    <t>DR1BWATZ</t>
+  </si>
+  <si>
+    <t>DR1TP205</t>
+  </si>
+  <si>
+    <t>DR1TP225</t>
+  </si>
+  <si>
+    <t>DR1TSUGR</t>
+  </si>
+  <si>
+    <t>PAD590</t>
+  </si>
+  <si>
+    <t>RIDAGEEX</t>
+  </si>
+  <si>
+    <t>DMDHRAGZ</t>
+  </si>
+  <si>
+    <t>DR1_330Z</t>
+  </si>
+  <si>
+    <t>HOD010</t>
+  </si>
+  <si>
+    <t>PUD010</t>
+  </si>
+  <si>
+    <t>PUD041</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2013-2014/HUQ_H.htm#HUQ020</t>
+  </si>
+  <si>
+    <t>Health now compared with 1 year ago</t>
+  </si>
+  <si>
+    <t>Received Hepatitis B 3 dose series</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/IMQ_G.htm#IMQ020</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2013-2014/HUQ_H.htm#HUQ071</t>
+  </si>
+  <si>
+    <t>Overnight hospital patient in last year</t>
+  </si>
+  <si>
+    <t>Ever been told you have asthma</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2009-2010/MCQ_F.htm#MCQ010</t>
+  </si>
+  <si>
+    <t>The following questions are about different medical conditions. Has a doctor or other health professional ever told {you/SP} that {you have/s/he/SP has} asthma (az-ma)?</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/MCQ_G.htm</t>
+  </si>
+  <si>
+    <t>Body Measures Component Status Code</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/BMX_G.htm#BMDSTATS</t>
+  </si>
+  <si>
+    <t>Past 30 day milk product consumption</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/dbq_g.htm#DBQ197</t>
+  </si>
+  <si>
+    <t>Total number of people in the Household</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nnyfs/Y_DEMO.htm#DMDHHSIZ</t>
+  </si>
+  <si>
+    <t>HH Worried run out of food</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/fsq_g.htm#FSD032A</t>
+  </si>
+  <si>
+    <t>Covered by health insurance</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2013-2014/HIQ_H.htm#HIQ011</t>
+  </si>
+  <si>
+    <t>Seen mental health professional/past yr</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2013-2014/HUQ_H.htm#HUQ090</t>
+  </si>
+  <si>
+    <t>Age in years at screening</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/demo_g.htm#RIDAGEYR</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2005-2006/DEMO_D.htm#RIDRETH1</t>
+  </si>
+  <si>
+    <t>Masked variance unit pseudo-stratum variable for variance estimation</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/demo_h.htm#SDMVSTRA</t>
+  </si>
+  <si>
+    <t>Does anyone smoke inside home?</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/SMQFAM_G.htm#SMD410</t>
+  </si>
+  <si>
+    <t>#times receive healthcare over past year</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/HUQ_G.htm#HUQ050</t>
+  </si>
+  <si>
+    <t>Received Hepatitis A vaccine</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/IMQ_G.htm#IMQ011</t>
+  </si>
+  <si>
+    <t>Wheezing or whistling in chest - past yr</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/RDQ_G.htm#RDQ070</t>
+  </si>
+  <si>
+    <t>Had dry cough at night in past year</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/RDQ_G.htm#RDQ140</t>
+  </si>
+  <si>
+    <t>Was an interpreter used to conduct the Sample Person (SP) interview?</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/demo_h.htm#SIAINTRP</t>
+  </si>
+  <si>
+    <t>Interpreter used in Family Interview?</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/demo_h.htm#FIAINTRP</t>
+  </si>
+  <si>
+    <t>[The next statement is . . .] The food that {I/we} bought just didn't last, and {I/we} didn't have money to get more.</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/fsq_h.htm#FSD032B</t>
+  </si>
+  <si>
+    <t>Couldn't afford balanced meals</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/fsq_h.htm#FSD032C</t>
+  </si>
+  <si>
+    <t>How many years family lived in home</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2009-2010/HOQ_F.htm#HOD060</t>
+  </si>
+  <si>
+    <t>Trouble seeing even with glass/contacts</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/MCQ_G.htm#MCQ140</t>
+  </si>
+  <si>
+    <t>Money spent on nonfood items</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2013-2014/CBQ_H.htm#CBD090</t>
+  </si>
+  <si>
+    <t>Money spent on eating out</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2013-2014/CBQ_H.htm#CBD130</t>
+  </si>
+  <si>
+    <t>Total number of people in the Family</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/demo_g.htm#DMDFMSIZ</t>
+  </si>
+  <si>
+    <t>Number of adults aged 60 years or older in the household</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/demo_g.htm#DMDHHSZE</t>
+  </si>
+  <si>
+    <t>Intake day of the week</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/DR1IFF_g.htm#DR1DAY</t>
+  </si>
+  <si>
+    <t>What kind of diet are you on? (Is it a weight loss or low calorie diet: low fat or cholesterol diet; low salt or sodium diet; sugar free or low sugar diet; low fiber diet; high fiber diet; diabetic diet; or another type of diet?)</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/DR1TOT_G.htm#DRQSDIET</t>
+  </si>
+  <si>
+    <t>What is the source of tap water in this home? Is it a private or public water company, a private or public well, or something else?</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2009-2010/HOQ_F.htm#HOQ070</t>
+  </si>
+  <si>
+    <t>Annual household income</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nnyfs/Y_DEMO.htm#INDHHIN2</t>
+  </si>
+  <si>
+    <t>When did you last visit a dentist</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2013-2014/OHQ_H.htm#OHQ030</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2017-2018/OHQ_J.htm#OHQ033</t>
+  </si>
+  <si>
+    <t>Main reason for last dental visit</t>
+  </si>
+  <si>
+    <t>Rate the health of your teeth and gums</t>
+  </si>
+  <si>
+    <t>General condition of hearing</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2009-2010/AUQ_F.htm#AUQ131</t>
+  </si>
+  <si>
+    <t>Body Mass Index (kg/m**2)</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2015-2016/BMX_I.htm#BMXBMI</t>
+  </si>
+  <si>
+    <t># of times/week eat restaurant food</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2001-2002/DBQ_B.htm#DBD090</t>
+  </si>
+  <si>
+    <t>Type of table salt used</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/DR1TOT_H.htm#DBQ095Z</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/DR1TOT_H.htm#DR1_300</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/DR1TOT_H.htm#DR1TALCO</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/DR1TOT_H.htm#DR1TP205</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/DR1TOT_H.htm#DR1TP225</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/DR1TOT_H.htm#DR1TSUGR</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2013-2014/DR1TOT_H.htm#DR1_330Z</t>
+  </si>
+  <si>
+    <t>Compare food consumed yesterday to usual</t>
+  </si>
+  <si>
+    <t>Alcohol (gm)</t>
+  </si>
+  <si>
+    <t>MFA 22:1 (Docosenoic) (gm)</t>
+  </si>
+  <si>
+    <t>When was home built</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/1999-2000/HOQ.htm#HOD040</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2013-2014/HUQ_H.htm#HUQ051</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/demo_g.htm#RIDAGEMN</t>
+  </si>
+  <si>
+    <t>Age in months at screening - 0 to 24 mos(missing9130)</t>
+  </si>
+  <si>
+    <t>Linked NH3 Race/Ethnicity - Recode</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2003-2004/DEMO_C.htm#RIDRETH2</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2011-2012/AUQ_G.htm#AUQ054</t>
+  </si>
+  <si>
+    <t>Money spent on carryout/delivered foods</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2015-2016/CBQ_I.htm#CBD131</t>
+  </si>
+  <si>
+    <t>Total bottled water drank yesterday (gm)</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2007-2008/dr1tot_e.htm#DR1BWATZ</t>
+  </si>
+  <si>
+    <t>PFA 20:5 (Eicosapentaenoic) (gm)</t>
+  </si>
+  <si>
+    <t>PFA 22:5 (Docosapentaenoic) (gm)</t>
+  </si>
+  <si>
+    <t>Total sugars (gm)</t>
+  </si>
+  <si>
+    <t># hours watch TV or videos past 30 days</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2005-2006/PAQ_D.htm#PAD590</t>
+  </si>
+  <si>
+    <t>Exam Age in Months - Recode</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2005-2006/DEMO_D.htm#RIDAGEEX</t>
+  </si>
+  <si>
+    <t>HH ref person's age in years</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/2017-2018/DEMO_J.htm</t>
+  </si>
+  <si>
+    <t>Total tap water drank yesterday (gm)</t>
+  </si>
+  <si>
+    <t>Type of home</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/nchs/nhanes/1999-2000/HOQ.htm#HOD010</t>
+  </si>
+  <si>
+    <t>Pest control in home in past month?</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2003-2004/PUQ_C.htm#PUD010</t>
+  </si>
+  <si>
+    <t>Home have private yard?</t>
+  </si>
+  <si>
+    <t>https://wwwn.cdc.gov/Nchs/Nhanes/2003-2004/PUQ_C.htm#PUD041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>Removed in Red</t>
+  </si>
+  <si>
+    <t>Keep MCQ053 Since this question might have more accurate answers</t>
+  </si>
+  <si>
+    <t>Remove due to not meaningful</t>
+  </si>
+  <si>
+    <t>Keep in yellow</t>
+  </si>
+  <si>
+    <t>Missingness less than 10,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6716,8 +7329,41 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6763,6 +7409,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7025,7 +7701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7279,9 +7955,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7293,6 +7966,37 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7622,11 +8326,11 @@
       <c r="B1" t="s">
         <v>2196</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" t="s">
         <v>44</v>
       </c>
@@ -8906,7 +9610,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>127</v>
       </c>
@@ -9425,6 +10129,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FAD974-3FF1-4275-8332-0697309C4D4D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B549A1B-E08C-4CD8-8CAD-A1290B69AC51}">
   <dimension ref="A1:M26"/>
@@ -10391,7 +11107,7 @@
       <c r="G4" s="81" t="s">
         <v>337</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="91">
         <v>38504</v>
       </c>
       <c r="I4" s="81" t="s">
@@ -10427,7 +11143,7 @@
       <c r="S4" s="81" t="s">
         <v>482</v>
       </c>
-      <c r="T4" s="92">
+      <c r="T4" s="91">
         <v>41061</v>
       </c>
       <c r="U4" s="81" t="s">
@@ -10454,7 +11170,7 @@
       <c r="AE4" s="81" t="s">
         <v>667</v>
       </c>
-      <c r="AF4" s="92">
+      <c r="AF4" s="91">
         <v>44501</v>
       </c>
     </row>
@@ -10775,7 +11491,7 @@
       <c r="D10" s="81" t="s">
         <v>289</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="91">
         <v>37408</v>
       </c>
       <c r="F10" s="81" t="s">
@@ -10784,7 +11500,7 @@
       <c r="G10" s="81" t="s">
         <v>347</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="91">
         <v>38108</v>
       </c>
       <c r="I10" s="81" t="s">
@@ -10793,7 +11509,7 @@
       <c r="J10" s="81" t="s">
         <v>385</v>
       </c>
-      <c r="K10" s="92">
+      <c r="K10" s="91">
         <v>38687</v>
       </c>
       <c r="L10" s="81" t="s">
@@ -10802,7 +11518,7 @@
       <c r="M10" s="81" t="s">
         <v>423</v>
       </c>
-      <c r="N10" s="92">
+      <c r="N10" s="91">
         <v>39387</v>
       </c>
       <c r="O10" s="81" t="s">
@@ -10811,7 +11527,7 @@
       <c r="P10" s="81" t="s">
         <v>453</v>
       </c>
-      <c r="Q10" s="92">
+      <c r="Q10" s="91">
         <v>40057</v>
       </c>
       <c r="R10" s="81" t="s">
@@ -10829,7 +11545,7 @@
       <c r="V10" s="81" t="s">
         <v>519</v>
       </c>
-      <c r="W10" s="92">
+      <c r="W10" s="91">
         <v>41518</v>
       </c>
       <c r="X10" s="81" t="s">
@@ -10847,7 +11563,7 @@
       <c r="AB10" s="81" t="s">
         <v>654</v>
       </c>
-      <c r="AC10" s="92">
+      <c r="AC10" s="91">
         <v>42979</v>
       </c>
       <c r="AD10" s="81" t="s">
@@ -10958,7 +11674,7 @@
       <c r="S12" s="81" t="s">
         <v>491</v>
       </c>
-      <c r="T12" s="92">
+      <c r="T12" s="91">
         <v>40787</v>
       </c>
       <c r="U12" s="81" t="s">
@@ -10976,7 +11692,7 @@
       <c r="Y12" s="81" t="s">
         <v>562</v>
       </c>
-      <c r="Z12" s="92">
+      <c r="Z12" s="91">
         <v>42278</v>
       </c>
     </row>
@@ -12787,7 +13503,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>546</v>
       </c>
@@ -12957,7 +13673,7 @@
       <c r="G61" s="81" t="s">
         <v>372</v>
       </c>
-      <c r="H61" s="92">
+      <c r="H61" s="91">
         <v>38384</v>
       </c>
       <c r="I61" s="81" t="s">
@@ -12966,7 +13682,7 @@
       <c r="J61" s="81" t="s">
         <v>415</v>
       </c>
-      <c r="K61" s="92">
+      <c r="K61" s="91">
         <v>38687</v>
       </c>
       <c r="L61" s="81" t="s">
@@ -12975,7 +13691,7 @@
       <c r="M61" s="81" t="s">
         <v>444</v>
       </c>
-      <c r="N61" s="92">
+      <c r="N61" s="91">
         <v>39539</v>
       </c>
       <c r="O61" s="81" t="s">
@@ -12984,7 +13700,7 @@
       <c r="P61" s="81" t="s">
         <v>477</v>
       </c>
-      <c r="Q61" s="92">
+      <c r="Q61" s="91">
         <v>40057</v>
       </c>
     </row>
@@ -13542,10 +14258,10 @@
       <c r="H5" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="I5" s="93" t="s">
-        <v>265</v>
-      </c>
-      <c r="J5" s="94"/>
+      <c r="I5" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="93"/>
       <c r="K5" s="38" t="s">
         <v>265</v>
       </c>
@@ -13576,10 +14292,10 @@
       <c r="H6" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="I6" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="J6" s="94"/>
+      <c r="I6" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="J6" s="93"/>
       <c r="K6" s="38" t="s">
         <v>265</v>
       </c>
@@ -14453,7 +15169,7 @@
         <v>265</v>
       </c>
       <c r="F48" s="34"/>
-      <c r="G48" s="94"/>
+      <c r="G48" s="93"/>
       <c r="H48" s="34" t="s">
         <v>265</v>
       </c>
@@ -14461,7 +15177,7 @@
       <c r="J48" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="K48" s="94"/>
+      <c r="K48" s="93"/>
       <c r="L48" s="34" t="s">
         <v>265</v>
       </c>
@@ -15815,7 +16531,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>738</v>
       </c>
@@ -18184,7 +18900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1ABD6E6-D1D3-4DE4-B342-3F5509685CB6}">
   <dimension ref="A1:AE68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -18442,7 +19158,7 @@
       <c r="AD3" s="81" t="s">
         <v>2111</v>
       </c>
-      <c r="AE3" s="92">
+      <c r="AE3" s="91">
         <v>43862</v>
       </c>
     </row>
@@ -18503,7 +19219,7 @@
       <c r="C5" s="81" t="s">
         <v>1256</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="91">
         <v>37408</v>
       </c>
       <c r="E5" s="81" t="s">
@@ -18512,7 +19228,7 @@
       <c r="F5" s="81" t="s">
         <v>1386</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="91">
         <v>38108</v>
       </c>
       <c r="H5" s="81" t="s">
@@ -18521,7 +19237,7 @@
       <c r="I5" s="81" t="s">
         <v>1477</v>
       </c>
-      <c r="J5" s="92">
+      <c r="J5" s="91">
         <v>39052</v>
       </c>
       <c r="K5" s="81" t="s">
@@ -18530,7 +19246,7 @@
       <c r="L5" s="81" t="s">
         <v>1568</v>
       </c>
-      <c r="M5" s="92">
+      <c r="M5" s="91">
         <v>39508</v>
       </c>
       <c r="N5" s="81" t="s">
@@ -18557,7 +19273,7 @@
       <c r="U5" s="81" t="s">
         <v>1850</v>
       </c>
-      <c r="V5" s="92">
+      <c r="V5" s="91">
         <v>41548</v>
       </c>
       <c r="W5" s="81" t="s">
@@ -18566,7 +19282,7 @@
       <c r="X5" s="81" t="s">
         <v>1939</v>
       </c>
-      <c r="Y5" s="92">
+      <c r="Y5" s="91">
         <v>42430</v>
       </c>
       <c r="Z5" s="81" t="s">
@@ -18575,7 +19291,7 @@
       <c r="AA5" s="81" t="s">
         <v>2033</v>
       </c>
-      <c r="AB5" s="92">
+      <c r="AB5" s="91">
         <v>43160</v>
       </c>
       <c r="AC5" s="81" t="s">
@@ -18584,7 +19300,7 @@
       <c r="AD5" s="81" t="s">
         <v>2113</v>
       </c>
-      <c r="AE5" s="92">
+      <c r="AE5" s="91">
         <v>44166</v>
       </c>
     </row>
@@ -18705,7 +19421,7 @@
       <c r="C10" s="81" t="s">
         <v>1261</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="91">
         <v>37408</v>
       </c>
       <c r="E10" s="81" t="s">
@@ -18714,7 +19430,7 @@
       <c r="F10" s="81" t="s">
         <v>1390</v>
       </c>
-      <c r="G10" s="92">
+      <c r="G10" s="91">
         <v>38108</v>
       </c>
       <c r="H10" s="81" t="s">
@@ -18723,7 +19439,7 @@
       <c r="I10" s="81" t="s">
         <v>1481</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="91">
         <v>38657</v>
       </c>
       <c r="K10" s="81" t="s">
@@ -18732,7 +19448,7 @@
       <c r="L10" s="81" t="s">
         <v>1573</v>
       </c>
-      <c r="M10" s="92">
+      <c r="M10" s="91">
         <v>39904</v>
       </c>
       <c r="N10" s="81" t="s">
@@ -18741,7 +19457,7 @@
       <c r="O10" s="81" t="s">
         <v>1664</v>
       </c>
-      <c r="P10" s="92">
+      <c r="P10" s="91">
         <v>40179</v>
       </c>
       <c r="Q10" s="81" t="s">
@@ -18750,7 +19466,7 @@
       <c r="R10" s="81" t="s">
         <v>1765</v>
       </c>
-      <c r="S10" s="92">
+      <c r="S10" s="91">
         <v>40787</v>
       </c>
       <c r="T10" s="81" t="s">
@@ -18823,7 +19539,7 @@
       <c r="C12" s="81" t="s">
         <v>1266</v>
       </c>
-      <c r="D12" s="92">
+      <c r="D12" s="91">
         <v>37408</v>
       </c>
       <c r="E12" s="81" t="s">
@@ -18832,7 +19548,7 @@
       <c r="F12" s="81" t="s">
         <v>1394</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="91">
         <v>38108</v>
       </c>
       <c r="H12" s="81" t="s">
@@ -18841,7 +19557,7 @@
       <c r="I12" s="81" t="s">
         <v>1485</v>
       </c>
-      <c r="J12" s="92">
+      <c r="J12" s="91">
         <v>38808</v>
       </c>
       <c r="K12" s="81" t="s">
@@ -18877,7 +19593,7 @@
       <c r="U12" s="81" t="s">
         <v>1854</v>
       </c>
-      <c r="V12" s="92">
+      <c r="V12" s="91">
         <v>41518</v>
       </c>
       <c r="W12" s="81" t="s">
@@ -18895,7 +19611,7 @@
       <c r="AA12" s="81" t="s">
         <v>2037</v>
       </c>
-      <c r="AB12" s="92">
+      <c r="AB12" s="91">
         <v>42979</v>
       </c>
       <c r="AC12" s="81" t="s">
@@ -18904,7 +19620,7 @@
       <c r="AD12" s="81" t="s">
         <v>2117</v>
       </c>
-      <c r="AE12" s="92">
+      <c r="AE12" s="91">
         <v>43862</v>
       </c>
     </row>
@@ -19022,7 +19738,7 @@
       <c r="X14" s="81" t="s">
         <v>1943</v>
       </c>
-      <c r="Y14" s="92">
+      <c r="Y14" s="91">
         <v>42278</v>
       </c>
       <c r="Z14" s="81" t="s">
@@ -19091,17 +19807,17 @@
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
-      <c r="D16" s="92"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="81"/>
       <c r="F16" s="81"/>
-      <c r="G16" s="92"/>
+      <c r="G16" s="91"/>
       <c r="N16" s="81" t="s">
         <v>1672</v>
       </c>
       <c r="O16" s="81" t="s">
         <v>1673</v>
       </c>
-      <c r="P16" s="92">
+      <c r="P16" s="91">
         <v>40299</v>
       </c>
       <c r="Q16" s="81" t="s">
@@ -19110,7 +19826,7 @@
       <c r="R16" s="81" t="s">
         <v>1773</v>
       </c>
-      <c r="S16" s="92">
+      <c r="S16" s="91">
         <v>41306</v>
       </c>
       <c r="T16" s="81" t="s">
@@ -19128,7 +19844,7 @@
       <c r="X16" s="81" t="s">
         <v>1947</v>
       </c>
-      <c r="Y16" s="92">
+      <c r="Y16" s="91">
         <v>42309</v>
       </c>
       <c r="Z16" s="81" t="s">
@@ -19137,7 +19853,7 @@
       <c r="AA16" s="81" t="s">
         <v>2041</v>
       </c>
-      <c r="AB16" s="92">
+      <c r="AB16" s="91">
         <v>43344</v>
       </c>
       <c r="AC16" s="81" t="s">
@@ -19146,7 +19862,7 @@
       <c r="AD16" s="81" t="s">
         <v>2121</v>
       </c>
-      <c r="AE16" s="92">
+      <c r="AE16" s="91">
         <v>44287</v>
       </c>
     </row>
@@ -19289,7 +20005,7 @@
       <c r="I20" s="81" t="s">
         <v>1489</v>
       </c>
-      <c r="J20" s="92">
+      <c r="J20" s="91">
         <v>38838</v>
       </c>
       <c r="K20" s="81" t="s">
@@ -19298,7 +20014,7 @@
       <c r="L20" s="81" t="s">
         <v>1582</v>
       </c>
-      <c r="M20" s="92">
+      <c r="M20" s="91">
         <v>39448</v>
       </c>
       <c r="N20" s="81" t="s">
@@ -19334,7 +20050,7 @@
       <c r="X20" s="81" t="s">
         <v>1951</v>
       </c>
-      <c r="Y20" s="92">
+      <c r="Y20" s="91">
         <v>42339</v>
       </c>
       <c r="Z20" s="81" t="s">
@@ -19366,7 +20082,7 @@
       <c r="C21" s="81" t="s">
         <v>1277</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="91">
         <v>37408</v>
       </c>
       <c r="E21" s="81" t="s">
@@ -19375,7 +20091,7 @@
       <c r="F21" s="81" t="s">
         <v>1402</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G21" s="91">
         <v>38108</v>
       </c>
       <c r="H21" s="81" t="s">
@@ -19429,7 +20145,7 @@
       <c r="AA21" s="81" t="s">
         <v>2045</v>
       </c>
-      <c r="AB21" s="92">
+      <c r="AB21" s="91">
         <v>42979</v>
       </c>
       <c r="AC21" s="81" t="s">
@@ -19438,7 +20154,7 @@
       <c r="AD21" s="81" t="s">
         <v>2129</v>
       </c>
-      <c r="AE21" s="92">
+      <c r="AE21" s="91">
         <v>43862</v>
       </c>
     </row>
@@ -19470,7 +20186,7 @@
       <c r="I22" s="81" t="s">
         <v>1493</v>
       </c>
-      <c r="J22" s="92">
+      <c r="J22" s="91">
         <v>38808</v>
       </c>
       <c r="K22" s="81" t="s">
@@ -19515,7 +20231,7 @@
       <c r="X22" s="81" t="s">
         <v>1955</v>
       </c>
-      <c r="Y22" s="92">
+      <c r="Y22" s="91">
         <v>42278</v>
       </c>
       <c r="Z22" s="81" t="s">
@@ -19547,7 +20263,7 @@
       <c r="C23" s="81" t="s">
         <v>1283</v>
       </c>
-      <c r="D23" s="92">
+      <c r="D23" s="91">
         <v>37408</v>
       </c>
       <c r="E23" s="81" t="s">
@@ -19556,7 +20272,7 @@
       <c r="F23" s="81" t="s">
         <v>1406</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G23" s="91">
         <v>38108</v>
       </c>
       <c r="H23" s="81" t="s">
@@ -19592,7 +20308,7 @@
       <c r="R23" s="81" t="s">
         <v>1786</v>
       </c>
-      <c r="S23" s="92">
+      <c r="S23" s="91">
         <v>41153</v>
       </c>
       <c r="T23" s="81" t="s">
@@ -19601,7 +20317,7 @@
       <c r="U23" s="81" t="s">
         <v>1871</v>
       </c>
-      <c r="V23" s="92">
+      <c r="V23" s="91">
         <v>42036</v>
       </c>
       <c r="W23" s="81" t="s">
@@ -19619,7 +20335,7 @@
       <c r="AA23" s="81" t="s">
         <v>2049</v>
       </c>
-      <c r="AB23" s="92">
+      <c r="AB23" s="91">
         <v>43405</v>
       </c>
       <c r="AC23" s="81" t="s">
@@ -19628,7 +20344,7 @@
       <c r="AD23" s="81" t="s">
         <v>2133</v>
       </c>
-      <c r="AE23" s="92">
+      <c r="AE23" s="91">
         <v>43862</v>
       </c>
     </row>
@@ -19713,7 +20429,7 @@
       <c r="I25" s="81" t="s">
         <v>1497</v>
       </c>
-      <c r="J25" s="92">
+      <c r="J25" s="91">
         <v>39052</v>
       </c>
       <c r="K25" s="81" t="s">
@@ -19722,7 +20438,7 @@
       <c r="L25" s="81" t="s">
         <v>1590</v>
       </c>
-      <c r="M25" s="92">
+      <c r="M25" s="91">
         <v>39508</v>
       </c>
       <c r="N25" s="81" t="s">
@@ -19731,7 +20447,7 @@
       <c r="O25" s="81" t="s">
         <v>1687</v>
       </c>
-      <c r="P25" s="92">
+      <c r="P25" s="91">
         <v>40179</v>
       </c>
       <c r="Q25" s="81" t="s">
@@ -19767,7 +20483,7 @@
       <c r="AA25" s="81" t="s">
         <v>2053</v>
       </c>
-      <c r="AB25" s="92">
+      <c r="AB25" s="91">
         <v>43221</v>
       </c>
       <c r="AC25" s="81" t="s">
@@ -19776,7 +20492,7 @@
       <c r="AD25" s="81" t="s">
         <v>2137</v>
       </c>
-      <c r="AE25" s="92">
+      <c r="AE25" s="91">
         <v>43862</v>
       </c>
     </row>
@@ -19790,7 +20506,7 @@
       <c r="C26" s="81" t="s">
         <v>1289</v>
       </c>
-      <c r="D26" s="92">
+      <c r="D26" s="91">
         <v>37408</v>
       </c>
       <c r="E26" s="81" t="s">
@@ -19835,7 +20551,7 @@
       <c r="R26" s="81" t="s">
         <v>1790</v>
       </c>
-      <c r="S26" s="92">
+      <c r="S26" s="91">
         <v>40909</v>
       </c>
       <c r="T26" s="81" t="s">
@@ -19844,7 +20560,7 @@
       <c r="U26" s="81" t="s">
         <v>1875</v>
       </c>
-      <c r="V26" s="92">
+      <c r="V26" s="91">
         <v>41518</v>
       </c>
       <c r="W26" s="81" t="s">
@@ -19853,7 +20569,7 @@
       <c r="X26" s="81" t="s">
         <v>1964</v>
       </c>
-      <c r="Y26" s="92">
+      <c r="Y26" s="91">
         <v>42278</v>
       </c>
       <c r="Z26" s="81" t="s">
@@ -19903,7 +20619,7 @@
       <c r="I27" s="81" t="s">
         <v>1501</v>
       </c>
-      <c r="J27" s="92">
+      <c r="J27" s="91">
         <v>39142</v>
       </c>
       <c r="K27" s="81" t="s">
@@ -19912,7 +20628,7 @@
       <c r="L27" s="81" t="s">
         <v>1594</v>
       </c>
-      <c r="M27" s="92">
+      <c r="M27" s="91">
         <v>39448</v>
       </c>
       <c r="N27" s="81" t="s">
@@ -19921,7 +20637,7 @@
       <c r="O27" s="81" t="s">
         <v>1691</v>
       </c>
-      <c r="P27" s="92">
+      <c r="P27" s="91">
         <v>40360</v>
       </c>
       <c r="Q27" s="81" t="s">
@@ -19957,7 +20673,7 @@
       <c r="AA27" s="81" t="s">
         <v>2057</v>
       </c>
-      <c r="AB27" s="92">
+      <c r="AB27" s="91">
         <v>43862</v>
       </c>
       <c r="AC27" s="81" t="s">
@@ -19966,7 +20682,7 @@
       <c r="AD27" s="81" t="s">
         <v>2141</v>
       </c>
-      <c r="AE27" s="92">
+      <c r="AE27" s="91">
         <v>44378</v>
       </c>
     </row>
@@ -19980,7 +20696,7 @@
       <c r="C28" s="81" t="s">
         <v>1295</v>
       </c>
-      <c r="D28" s="92">
+      <c r="D28" s="91">
         <v>38169</v>
       </c>
       <c r="E28" s="81" t="s">
@@ -19989,7 +20705,7 @@
       <c r="F28" s="81" t="s">
         <v>1414</v>
       </c>
-      <c r="G28" s="92">
+      <c r="G28" s="91">
         <v>38169</v>
       </c>
       <c r="H28" s="81" t="s">
@@ -20025,7 +20741,7 @@
       <c r="R28" s="81" t="s">
         <v>1794</v>
       </c>
-      <c r="S28" s="92">
+      <c r="S28" s="91">
         <v>40787</v>
       </c>
       <c r="T28" s="81" t="s">
@@ -20034,7 +20750,7 @@
       <c r="U28" s="81" t="s">
         <v>1879</v>
       </c>
-      <c r="V28" s="92">
+      <c r="V28" s="91">
         <v>41518</v>
       </c>
       <c r="W28" s="81" t="s">
@@ -20043,7 +20759,7 @@
       <c r="X28" s="81" t="s">
         <v>1968</v>
       </c>
-      <c r="Y28" s="92">
+      <c r="Y28" s="91">
         <v>42278</v>
       </c>
       <c r="Z28" s="81" t="s">
@@ -20124,7 +20840,7 @@
       </c>
       <c r="B30" s="81"/>
       <c r="C30" s="81"/>
-      <c r="D30" s="92"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="81" t="s">
         <v>1416</v>
       </c>
@@ -20149,7 +20865,7 @@
       <c r="L30" s="81" t="s">
         <v>1598</v>
       </c>
-      <c r="M30" s="92">
+      <c r="M30" s="91">
         <v>39539</v>
       </c>
       <c r="N30" s="81" t="s">
@@ -20158,7 +20874,7 @@
       <c r="O30" s="81" t="s">
         <v>1695</v>
       </c>
-      <c r="P30" s="92">
+      <c r="P30" s="91">
         <v>40360</v>
       </c>
       <c r="Q30" s="81" t="s">
@@ -20199,7 +20915,7 @@
       <c r="F31" s="81" t="s">
         <v>1420</v>
       </c>
-      <c r="G31" s="92">
+      <c r="G31" s="91">
         <v>37987</v>
       </c>
       <c r="H31" s="81" t="s">
@@ -20235,7 +20951,7 @@
       <c r="R31" s="81" t="s">
         <v>1798</v>
       </c>
-      <c r="S31" s="92">
+      <c r="S31" s="91">
         <v>40787</v>
       </c>
       <c r="T31" s="81" t="s">
@@ -20244,7 +20960,7 @@
       <c r="U31" s="81" t="s">
         <v>1883</v>
       </c>
-      <c r="V31" s="92">
+      <c r="V31" s="91">
         <v>41518</v>
       </c>
       <c r="W31" s="81" t="s">
@@ -20253,7 +20969,7 @@
       <c r="X31" s="81" t="s">
         <v>1973</v>
       </c>
-      <c r="Y31" s="92">
+      <c r="Y31" s="91">
         <v>42278</v>
       </c>
       <c r="Z31" s="81" t="s">
@@ -20285,7 +21001,7 @@
       <c r="C32" s="81" t="s">
         <v>1301</v>
       </c>
-      <c r="D32" s="92">
+      <c r="D32" s="91">
         <v>38169</v>
       </c>
       <c r="E32" s="81" t="s">
@@ -20312,7 +21028,7 @@
       <c r="L32" s="81" t="s">
         <v>1602</v>
       </c>
-      <c r="M32" s="92">
+      <c r="M32" s="91">
         <v>39539</v>
       </c>
       <c r="N32" s="81" t="s">
@@ -20321,7 +21037,7 @@
       <c r="O32" s="81" t="s">
         <v>1699</v>
       </c>
-      <c r="P32" s="92">
+      <c r="P32" s="91">
         <v>40057</v>
       </c>
       <c r="Q32" s="81" t="s">
@@ -20357,7 +21073,7 @@
       <c r="AA32" s="81" t="s">
         <v>2065</v>
       </c>
-      <c r="AB32" s="92">
+      <c r="AB32" s="91">
         <v>42979</v>
       </c>
       <c r="AC32" s="81" t="s">
@@ -20366,7 +21082,7 @@
       <c r="AD32" s="81" t="s">
         <v>2149</v>
       </c>
-      <c r="AE32" s="92">
+      <c r="AE32" s="91">
         <v>44166</v>
       </c>
     </row>
@@ -20389,7 +21105,7 @@
       <c r="F33" s="81" t="s">
         <v>1424</v>
       </c>
-      <c r="G33" s="92">
+      <c r="G33" s="91">
         <v>38108</v>
       </c>
       <c r="H33" s="81" t="s">
@@ -20425,7 +21141,7 @@
       <c r="R33" s="81" t="s">
         <v>1802</v>
       </c>
-      <c r="S33" s="92">
+      <c r="S33" s="91">
         <v>40878</v>
       </c>
       <c r="T33" s="81" t="s">
@@ -20434,7 +21150,7 @@
       <c r="U33" s="81" t="s">
         <v>1887</v>
       </c>
-      <c r="V33" s="92">
+      <c r="V33" s="91">
         <v>41518</v>
       </c>
       <c r="W33" s="81" t="s">
@@ -20443,7 +21159,7 @@
       <c r="X33" s="81" t="s">
         <v>1977</v>
       </c>
-      <c r="Y33" s="92">
+      <c r="Y33" s="91">
         <v>42278</v>
       </c>
       <c r="Z33" s="81" t="s">
@@ -20474,7 +21190,7 @@
       <c r="D34" s="83"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
-      <c r="G34" s="92"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="81"/>
       <c r="I34" s="81"/>
       <c r="J34" s="83"/>
@@ -20487,7 +21203,7 @@
       <c r="O34" s="81" t="s">
         <v>1704</v>
       </c>
-      <c r="P34" s="92">
+      <c r="P34" s="91">
         <v>40330</v>
       </c>
       <c r="Q34" s="81" t="s">
@@ -20523,7 +21239,7 @@
       <c r="AA34" s="81" t="s">
         <v>2069</v>
       </c>
-      <c r="AB34" s="92">
+      <c r="AB34" s="91">
         <v>42979</v>
       </c>
       <c r="AC34" s="81" t="s">
@@ -20532,7 +21248,7 @@
       <c r="AD34" s="81" t="s">
         <v>2153</v>
       </c>
-      <c r="AE34" s="92">
+      <c r="AE34" s="91">
         <v>44287</v>
       </c>
     </row>
@@ -20546,7 +21262,7 @@
       <c r="C35" s="81" t="s">
         <v>1307</v>
       </c>
-      <c r="D35" s="92">
+      <c r="D35" s="91">
         <v>37408</v>
       </c>
       <c r="E35" s="81" t="s">
@@ -20564,7 +21280,7 @@
       <c r="I35" s="81" t="s">
         <v>1513</v>
       </c>
-      <c r="J35" s="92">
+      <c r="J35" s="91">
         <v>38930</v>
       </c>
       <c r="K35" s="81" t="s">
@@ -20573,7 +21289,7 @@
       <c r="L35" s="81" t="s">
         <v>1606</v>
       </c>
-      <c r="M35" s="92">
+      <c r="M35" s="91">
         <v>39448</v>
       </c>
       <c r="N35" s="81" t="s">
@@ -20591,7 +21307,7 @@
       <c r="R35" s="81" t="s">
         <v>1806</v>
       </c>
-      <c r="S35" s="92">
+      <c r="S35" s="91">
         <v>40909</v>
       </c>
       <c r="T35" s="81" t="s">
@@ -20600,7 +21316,7 @@
       <c r="U35" s="81" t="s">
         <v>1891</v>
       </c>
-      <c r="V35" s="92">
+      <c r="V35" s="91">
         <v>41944</v>
       </c>
       <c r="W35" s="81" t="s">
@@ -20609,7 +21325,7 @@
       <c r="X35" s="81" t="s">
         <v>1981</v>
       </c>
-      <c r="Y35" s="92">
+      <c r="Y35" s="91">
         <v>42767</v>
       </c>
       <c r="Z35" s="81" t="s">
@@ -20650,7 +21366,7 @@
       <c r="F36" s="81" t="s">
         <v>1428</v>
       </c>
-      <c r="G36" s="92">
+      <c r="G36" s="91">
         <v>38108</v>
       </c>
       <c r="H36" s="81" t="s">
@@ -20677,7 +21393,7 @@
       <c r="O36" s="81" t="s">
         <v>1708</v>
       </c>
-      <c r="P36" s="92">
+      <c r="P36" s="91">
         <v>40057</v>
       </c>
       <c r="Q36" s="81" t="s">
@@ -20713,7 +21429,7 @@
       <c r="AA36" s="81" t="s">
         <v>2073</v>
       </c>
-      <c r="AB36" s="92">
+      <c r="AB36" s="91">
         <v>42979</v>
       </c>
       <c r="AC36" s="81" t="s">
@@ -20722,7 +21438,7 @@
       <c r="AD36" s="81" t="s">
         <v>2157</v>
       </c>
-      <c r="AE36" s="92">
+      <c r="AE36" s="91">
         <v>43862</v>
       </c>
     </row>
@@ -20754,7 +21470,7 @@
       <c r="I37" s="81" t="s">
         <v>1517</v>
       </c>
-      <c r="J37" s="92">
+      <c r="J37" s="91">
         <v>38930</v>
       </c>
       <c r="K37" s="81" t="s">
@@ -20763,7 +21479,7 @@
       <c r="L37" s="81" t="s">
         <v>1610</v>
       </c>
-      <c r="M37" s="92">
+      <c r="M37" s="91">
         <v>39539</v>
       </c>
       <c r="N37" s="81" t="s">
@@ -20781,7 +21497,7 @@
       <c r="R37" s="81" t="s">
         <v>1810</v>
       </c>
-      <c r="S37" s="92">
+      <c r="S37" s="91">
         <v>40787</v>
       </c>
       <c r="T37" s="81" t="s">
@@ -20790,7 +21506,7 @@
       <c r="U37" s="81" t="s">
         <v>1895</v>
       </c>
-      <c r="V37" s="92">
+      <c r="V37" s="91">
         <v>41518</v>
       </c>
       <c r="W37" s="81" t="s">
@@ -20799,7 +21515,7 @@
       <c r="X37" s="81" t="s">
         <v>1985</v>
       </c>
-      <c r="Y37" s="92">
+      <c r="Y37" s="91">
         <v>42430</v>
       </c>
       <c r="Z37" s="81" t="s">
@@ -20917,7 +21633,7 @@
         <v>38930</v>
       </c>
     </row>
-    <row r="41" spans="1:31" s="84" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" s="84" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="85" t="s">
         <v>1324</v>
       </c>
@@ -20927,7 +21643,7 @@
       <c r="C41" s="81" t="s">
         <v>1326</v>
       </c>
-      <c r="D41" s="92">
+      <c r="D41" s="91">
         <v>39448</v>
       </c>
       <c r="E41" s="81" t="s">
@@ -20945,7 +21661,7 @@
       <c r="I41" s="81" t="s">
         <v>1525</v>
       </c>
-      <c r="J41" s="92">
+      <c r="J41" s="91">
         <v>39448</v>
       </c>
       <c r="K41" s="81" t="s">
@@ -20999,7 +21715,7 @@
       <c r="AA41" s="81" t="s">
         <v>2077</v>
       </c>
-      <c r="AB41" s="92">
+      <c r="AB41" s="91">
         <v>43191</v>
       </c>
       <c r="AC41" s="81" t="s">
@@ -21008,7 +21724,7 @@
       <c r="AD41" s="81" t="s">
         <v>2161</v>
       </c>
-      <c r="AE41" s="92">
+      <c r="AE41" s="91">
         <v>43862</v>
       </c>
     </row>
@@ -21031,7 +21747,7 @@
       <c r="F42" s="81" t="s">
         <v>1440</v>
       </c>
-      <c r="G42" s="92">
+      <c r="G42" s="91">
         <v>38322</v>
       </c>
       <c r="H42" s="81" t="s">
@@ -21049,7 +21765,7 @@
       <c r="L42" s="81" t="s">
         <v>1614</v>
       </c>
-      <c r="M42" s="92">
+      <c r="M42" s="91">
         <v>39600</v>
       </c>
       <c r="N42" s="81" t="s">
@@ -21067,7 +21783,7 @@
       <c r="R42" s="81" t="s">
         <v>1815</v>
       </c>
-      <c r="S42" s="92">
+      <c r="S42" s="91">
         <v>41000</v>
       </c>
       <c r="T42" s="81" t="s">
@@ -21076,7 +21792,7 @@
       <c r="U42" s="81" t="s">
         <v>1900</v>
       </c>
-      <c r="V42" s="92">
+      <c r="V42" s="91">
         <v>41699</v>
       </c>
       <c r="W42" s="81" t="s">
@@ -21085,7 +21801,7 @@
       <c r="X42" s="81" t="s">
         <v>1990</v>
       </c>
-      <c r="Y42" s="92">
+      <c r="Y42" s="91">
         <v>42583</v>
       </c>
       <c r="Z42" s="81" t="s">
@@ -21203,7 +21919,7 @@
       <c r="F44" s="81" t="s">
         <v>1444</v>
       </c>
-      <c r="G44" s="92">
+      <c r="G44" s="91">
         <v>38169</v>
       </c>
       <c r="H44" s="81" t="s">
@@ -21221,7 +21937,7 @@
       <c r="L44" s="81" t="s">
         <v>1618</v>
       </c>
-      <c r="M44" s="92">
+      <c r="M44" s="91">
         <v>39417</v>
       </c>
       <c r="N44" s="81" t="s">
@@ -21239,7 +21955,7 @@
       <c r="R44" s="81" t="s">
         <v>1819</v>
       </c>
-      <c r="S44" s="92">
+      <c r="S44" s="91">
         <v>40787</v>
       </c>
       <c r="T44" s="81" t="s">
@@ -21257,7 +21973,7 @@
       <c r="X44" s="81" t="s">
         <v>1994</v>
       </c>
-      <c r="Y44" s="92">
+      <c r="Y44" s="91">
         <v>42278</v>
       </c>
       <c r="Z44" s="81" t="s">
@@ -21266,7 +21982,7 @@
       <c r="AA44" s="81" t="s">
         <v>2081</v>
       </c>
-      <c r="AB44" s="92">
+      <c r="AB44" s="91">
         <v>43770</v>
       </c>
       <c r="AC44" s="81" t="s">
@@ -21307,7 +22023,7 @@
       <c r="I45" s="81" t="s">
         <v>1534</v>
       </c>
-      <c r="J45" s="92">
+      <c r="J45" s="91">
         <v>38657</v>
       </c>
       <c r="K45" s="81" t="s">
@@ -21370,7 +22086,7 @@
       <c r="AD45" s="81" t="s">
         <v>2169</v>
       </c>
-      <c r="AE45" s="92">
+      <c r="AE45" s="91">
         <v>43862</v>
       </c>
     </row>
@@ -21434,7 +22150,7 @@
       <c r="C47" s="81" t="s">
         <v>1344</v>
       </c>
-      <c r="D47" s="92">
+      <c r="D47" s="91">
         <v>37408</v>
       </c>
       <c r="E47" s="81" t="s">
@@ -21479,7 +22195,7 @@
       <c r="R47" s="81" t="s">
         <v>1823</v>
       </c>
-      <c r="S47" s="92">
+      <c r="S47" s="91">
         <v>40787</v>
       </c>
       <c r="T47" s="81" t="s">
@@ -21506,7 +22222,7 @@
       <c r="AA47" s="81" t="s">
         <v>2085</v>
       </c>
-      <c r="AB47" s="92">
+      <c r="AB47" s="91">
         <v>42979</v>
       </c>
       <c r="AC47" s="81" t="s">
@@ -21515,7 +22231,7 @@
       <c r="AD47" s="81" t="s">
         <v>2173</v>
       </c>
-      <c r="AE47" s="92">
+      <c r="AE47" s="91">
         <v>43862</v>
       </c>
     </row>
@@ -21565,7 +22281,7 @@
       <c r="O48" s="81" t="s">
         <v>1726</v>
       </c>
-      <c r="P48" s="92">
+      <c r="P48" s="91">
         <v>40269</v>
       </c>
       <c r="Q48" s="81" t="s">
@@ -21583,7 +22299,7 @@
       <c r="U48" s="81" t="s">
         <v>1908</v>
       </c>
-      <c r="V48" s="92">
+      <c r="V48" s="91">
         <v>41821</v>
       </c>
       <c r="W48" s="81" t="s">
@@ -21878,7 +22594,7 @@
       <c r="L53" s="81" t="s">
         <v>1632</v>
       </c>
-      <c r="M53" s="92">
+      <c r="M53" s="91">
         <v>39417</v>
       </c>
       <c r="N53" s="81" t="s">
@@ -21923,7 +22639,7 @@
       <c r="AA53" s="81" t="s">
         <v>2091</v>
       </c>
-      <c r="AB53" s="92">
+      <c r="AB53" s="91">
         <v>43132</v>
       </c>
       <c r="AC53" s="81" t="s">
@@ -21932,7 +22648,7 @@
       <c r="AD53" s="81" t="s">
         <v>2179</v>
       </c>
-      <c r="AE53" s="92">
+      <c r="AE53" s="91">
         <v>43862</v>
       </c>
     </row>
@@ -21946,7 +22662,7 @@
       <c r="C54" s="81" t="s">
         <v>1358</v>
       </c>
-      <c r="D54" s="92">
+      <c r="D54" s="91">
         <v>37408</v>
       </c>
       <c r="E54" s="81" t="s">
@@ -21955,7 +22671,7 @@
       <c r="F54" s="81" t="s">
         <v>1459</v>
       </c>
-      <c r="G54" s="92">
+      <c r="G54" s="91">
         <v>38353</v>
       </c>
       <c r="H54" s="81" t="s">
@@ -21964,7 +22680,7 @@
       <c r="I54" s="81" t="s">
         <v>1550</v>
       </c>
-      <c r="J54" s="92">
+      <c r="J54" s="91">
         <v>38718</v>
       </c>
       <c r="K54" s="81" t="s">
@@ -21982,7 +22698,7 @@
       <c r="O54" s="81" t="s">
         <v>1733</v>
       </c>
-      <c r="P54" s="92">
+      <c r="P54" s="91">
         <v>40179</v>
       </c>
       <c r="Q54" s="81" t="s">
@@ -21991,7 +22707,7 @@
       <c r="R54" s="81" t="s">
         <v>1829</v>
       </c>
-      <c r="S54" s="92">
+      <c r="S54" s="91">
         <v>40787</v>
       </c>
       <c r="T54" s="81" t="s">
@@ -22000,7 +22716,7 @@
       <c r="U54" s="81" t="s">
         <v>1915</v>
       </c>
-      <c r="V54" s="92">
+      <c r="V54" s="91">
         <v>41518</v>
       </c>
     </row>
@@ -22041,7 +22757,7 @@
       <c r="L55" s="81" t="s">
         <v>1636</v>
       </c>
-      <c r="M55" s="92">
+      <c r="M55" s="91">
         <v>39508</v>
       </c>
       <c r="N55" s="81" t="s">
@@ -22127,7 +22843,7 @@
       <c r="O56" s="81" t="s">
         <v>1737</v>
       </c>
-      <c r="P56" s="92">
+      <c r="P56" s="91">
         <v>40087</v>
       </c>
       <c r="Q56" s="81" t="s">
@@ -22136,7 +22852,7 @@
       <c r="R56" s="81" t="s">
         <v>1833</v>
       </c>
-      <c r="S56" s="92">
+      <c r="S56" s="91">
         <v>40909</v>
       </c>
       <c r="T56" s="81" t="s">
@@ -22145,7 +22861,7 @@
       <c r="U56" s="81" t="s">
         <v>1919</v>
       </c>
-      <c r="V56" s="92">
+      <c r="V56" s="91">
         <v>41579</v>
       </c>
       <c r="W56" s="81" t="s">
@@ -22154,7 +22870,7 @@
       <c r="X56" s="81" t="s">
         <v>2009</v>
       </c>
-      <c r="Y56" s="92">
+      <c r="Y56" s="91">
         <v>42401</v>
       </c>
       <c r="Z56" s="81" t="s">
@@ -22163,7 +22879,7 @@
       <c r="AA56" s="81" t="s">
         <v>2095</v>
       </c>
-      <c r="AB56" s="92">
+      <c r="AB56" s="91">
         <v>43160</v>
       </c>
     </row>
@@ -22177,7 +22893,7 @@
       <c r="C57" s="81" t="s">
         <v>1364</v>
       </c>
-      <c r="D57" s="92">
+      <c r="D57" s="91">
         <v>37408</v>
       </c>
       <c r="E57" s="81" t="s">
@@ -22186,7 +22902,7 @@
       <c r="F57" s="81" t="s">
         <v>1463</v>
       </c>
-      <c r="G57" s="92">
+      <c r="G57" s="91">
         <v>38169</v>
       </c>
       <c r="H57" s="81" t="s">
@@ -22195,7 +22911,7 @@
       <c r="I57" s="81" t="s">
         <v>1554</v>
       </c>
-      <c r="J57" s="92">
+      <c r="J57" s="91">
         <v>38961</v>
       </c>
       <c r="N57" s="81" t="s">
@@ -22249,7 +22965,7 @@
       <c r="AD57" s="81" t="s">
         <v>2183</v>
       </c>
-      <c r="AE57" s="92">
+      <c r="AE57" s="91">
         <v>43862</v>
       </c>
     </row>
@@ -22322,7 +23038,7 @@
       <c r="F59" s="81" t="s">
         <v>1467</v>
       </c>
-      <c r="G59" s="92">
+      <c r="G59" s="91">
         <v>38169</v>
       </c>
       <c r="H59" s="81" t="s">
@@ -22331,7 +23047,7 @@
       <c r="I59" s="81" t="s">
         <v>1558</v>
       </c>
-      <c r="J59" s="92">
+      <c r="J59" s="91">
         <v>38961</v>
       </c>
       <c r="K59" s="81" t="s">
@@ -22349,7 +23065,7 @@
       <c r="O59" s="81" t="s">
         <v>1741</v>
       </c>
-      <c r="P59" s="92">
+      <c r="P59" s="91">
         <v>40057</v>
       </c>
       <c r="Q59" s="81" t="s">
@@ -22358,7 +23074,7 @@
       <c r="R59" s="81" t="s">
         <v>1837</v>
       </c>
-      <c r="S59" s="92">
+      <c r="S59" s="91">
         <v>40787</v>
       </c>
       <c r="T59" s="81" t="s">
@@ -22367,7 +23083,7 @@
       <c r="U59" s="81" t="s">
         <v>1923</v>
       </c>
-      <c r="V59" s="92">
+      <c r="V59" s="91">
         <v>41518</v>
       </c>
       <c r="Z59" s="81" t="s">
@@ -22376,7 +23092,7 @@
       <c r="AA59" s="81" t="s">
         <v>2099</v>
       </c>
-      <c r="AB59" s="92">
+      <c r="AB59" s="91">
         <v>42979</v>
       </c>
       <c r="AC59" s="81" t="s">
@@ -22451,17 +23167,17 @@
       <c r="D61" s="86"/>
       <c r="E61" s="81"/>
       <c r="F61" s="81"/>
-      <c r="G61" s="92"/>
+      <c r="G61" s="91"/>
       <c r="H61" s="81"/>
       <c r="I61" s="81"/>
-      <c r="J61" s="92"/>
+      <c r="J61" s="91"/>
       <c r="K61" s="81" t="s">
         <v>1645</v>
       </c>
       <c r="L61" s="81" t="s">
         <v>1646</v>
       </c>
-      <c r="M61" s="92">
+      <c r="M61" s="91">
         <v>39417</v>
       </c>
       <c r="N61" s="81" t="s">
@@ -22515,7 +23231,7 @@
       <c r="AD61" s="81" t="s">
         <v>2187</v>
       </c>
-      <c r="AE61" s="92">
+      <c r="AE61" s="91">
         <v>43862</v>
       </c>
     </row>
@@ -22689,13 +23405,13 @@
       <c r="D66" s="83"/>
       <c r="E66" s="81"/>
       <c r="F66" s="81"/>
-      <c r="G66" s="92"/>
+      <c r="G66" s="91"/>
       <c r="H66" s="81"/>
       <c r="I66" s="81"/>
-      <c r="J66" s="92"/>
+      <c r="J66" s="91"/>
       <c r="K66" s="81"/>
       <c r="L66" s="81"/>
-      <c r="M66" s="92"/>
+      <c r="M66" s="91"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
       <c r="P66" s="83"/>
@@ -22705,7 +23421,7 @@
       <c r="R66" s="81" t="s">
         <v>1842</v>
       </c>
-      <c r="S66" s="92">
+      <c r="S66" s="91">
         <v>42826</v>
       </c>
       <c r="T66" s="81" t="s">
@@ -22714,7 +23430,7 @@
       <c r="U66" s="81" t="s">
         <v>1931</v>
       </c>
-      <c r="V66" s="92">
+      <c r="V66" s="91">
         <v>42826</v>
       </c>
       <c r="W66" s="81" t="s">
@@ -22723,7 +23439,7 @@
       <c r="X66" s="81" t="s">
         <v>2025</v>
       </c>
-      <c r="Y66" s="92">
+      <c r="Y66" s="91">
         <v>42767</v>
       </c>
       <c r="Z66" s="81" t="s">
@@ -22741,7 +23457,7 @@
       <c r="AD66" s="81" t="s">
         <v>2191</v>
       </c>
-      <c r="AE66" s="92">
+      <c r="AE66" s="91">
         <v>44166</v>
       </c>
     </row>
@@ -22755,7 +23471,7 @@
       <c r="C67" s="81" t="s">
         <v>1382</v>
       </c>
-      <c r="D67" s="92">
+      <c r="D67" s="91">
         <v>37408</v>
       </c>
       <c r="E67" s="81" t="s">
@@ -22764,7 +23480,7 @@
       <c r="F67" s="81" t="s">
         <v>1473</v>
       </c>
-      <c r="G67" s="92">
+      <c r="G67" s="91">
         <v>40330</v>
       </c>
       <c r="H67" s="81" t="s">
@@ -22773,7 +23489,7 @@
       <c r="I67" s="81" t="s">
         <v>1564</v>
       </c>
-      <c r="J67" s="92">
+      <c r="J67" s="91">
         <v>38899</v>
       </c>
       <c r="K67" s="81" t="s">
@@ -22791,7 +23507,7 @@
       <c r="O67" s="81" t="s">
         <v>1749</v>
       </c>
-      <c r="P67" s="92">
+      <c r="P67" s="91">
         <v>40057</v>
       </c>
       <c r="Q67" s="81" t="s">
@@ -22827,7 +23543,7 @@
       <c r="AA67" s="81" t="s">
         <v>2107</v>
       </c>
-      <c r="AB67" s="92">
+      <c r="AB67" s="91">
         <v>43191</v>
       </c>
       <c r="AC67" s="81" t="s">
@@ -22840,7 +23556,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="68" spans="1:31" s="23" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" s="23" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>1653</v>
       </c>
@@ -25753,4 +26469,1070 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA17DBC-A77E-41F4-AEAC-E3C9BD2B4EEA}">
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="97.85546875" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>2203</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="100" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="100" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="100" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="98" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="106" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B20" s="106" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C20" s="106" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="106" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B22" s="106" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C22" s="106" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="84" customFormat="1" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B27" s="97" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="84" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B28" s="110" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B30" s="97" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B32" s="95" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B33" s="95" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B35" s="95" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B36" s="95" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B37" s="97" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B39" s="95" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B40" s="95" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B41" s="95" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B43" s="95" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B44" s="95" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B45" s="95" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B46" s="95" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B48" s="95" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="106" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B49" s="97" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B50" s="95" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B52" s="95" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B57" s="95" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B58" s="95" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B59" s="95" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="107" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B60" s="107" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C60" s="107" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="105" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B61" s="105" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C61" s="105" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="107" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B62" s="108" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C62" s="107" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="103" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B63" s="104" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C63" s="103" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="103" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B64" s="103" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C64" s="103" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B65" s="95" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="84" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B66" s="110" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C66" s="84" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B67" s="95" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C67" xr:uid="{AEA17DBC-A77E-41F4-AEAC-E3C9BD2B4EEA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C67">
+    <sortCondition ref="A2:A67"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" location="DBQ095Z" xr:uid="{E093435B-60EF-48D7-9D76-AA2CC0CE6342}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68314FCC-A8A8-4269-8BC5-556EC713ABCD}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="115" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="112" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C8" s="112" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="84" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B9" s="117" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="114" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="114" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B14" s="114" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C14" s="114" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="114" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B15" s="114" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C15" s="114" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="114" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B16" s="114" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C16" s="114" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="84" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="112" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B19" s="112" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C19" s="112" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B20" s="110" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B21" s="110" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="112" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B22" s="113" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C22" s="112" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B23" s="111" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="105" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="84" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C23" xr:uid="{68314FCC-A8A8-4269-8BC5-556EC713ABCD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+      <sortCondition ref="A2:A23"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/References/Codebook for datatables V2.xlsx
+++ b/References/Codebook for datatables V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xueti\Dropbox (University of Michigan)\Umich\class\term 1\625\Final\625_Group5\625_Group5\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB2EA88-4D2F-4891-8F97-9B5733933031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049A58C0-6030-470B-BB80-91A81623ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20475" windowHeight="14595" tabRatio="735" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20475" windowHeight="14595" tabRatio="735" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dietary All" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="Questionnaire Indicator" sheetId="9" r:id="rId7"/>
     <sheet name="Selection Results" sheetId="10" r:id="rId8"/>
     <sheet name="0.3" sheetId="12" r:id="rId9"/>
-    <sheet name="0.4" sheetId="13" r:id="rId10"/>
+    <sheet name="Select result v2" sheetId="13" r:id="rId10"/>
+    <sheet name="Result_Format" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'0.3'!$A$1:$C$23</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3786" uniqueCount="2404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="2428">
   <si>
     <t>1999-2000</t>
   </si>
@@ -7250,6 +7251,78 @@
   </si>
   <si>
     <t>Missingness less than 10,000</t>
+  </si>
+  <si>
+    <t>INDFMPIR</t>
+  </si>
+  <si>
+    <t>Ratio of family income to poverty</t>
+  </si>
+  <si>
+    <t>RIDEXMON</t>
+  </si>
+  <si>
+    <t>DMDHRAGE</t>
+  </si>
+  <si>
+    <t>BMXWT</t>
+  </si>
+  <si>
+    <t>BMXHT</t>
+  </si>
+  <si>
+    <t>BMXARML</t>
+  </si>
+  <si>
+    <t>BMXARMC</t>
+  </si>
+  <si>
+    <t>BPXPULS</t>
+  </si>
+  <si>
+    <t>HOD050</t>
+  </si>
+  <si>
+    <t>HSAQUEX</t>
+  </si>
+  <si>
+    <t>Six month time period</t>
+  </si>
+  <si>
+    <t>Citizenship status</t>
+  </si>
+  <si>
+    <t>HH Ref Person Gender</t>
+  </si>
+  <si>
+    <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>Upper Arm Length (cm)</t>
+  </si>
+  <si>
+    <t>Arm Circumference (cm)</t>
+  </si>
+  <si>
+    <t>Pulse regular or irregular?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of rooms in home</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Home owned, bought, rented, other</t>
+  </si>
+  <si>
+    <t>HSAQUEX - Source of Health Status Data</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Variable Label</t>
   </si>
 </sst>
 </file>
@@ -7443,7 +7516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -7696,12 +7769,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7968,9 +8070,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7985,9 +8084,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7998,6 +8094,26 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8326,11 +8442,11 @@
       <c r="B1" t="s">
         <v>2196</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
       <c r="F1" t="s">
         <v>44</v>
       </c>
@@ -10131,12 +10247,424 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FAD974-3FF1-4275-8332-0697309C4D4D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="84" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B24" s="109" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="23" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B25" s="117" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EADE2D-187B-41F6-86CE-9F01FD6C4D53}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="69.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="119" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="120" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C2" s="123" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D2" s="123" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="121" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B3" s="122" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C3" s="123" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D3" s="123" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="121" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B4" s="122" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C4" s="123" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D4" s="123" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="121" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B5" s="122" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C5" s="123" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D5" s="123" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="121" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B6" s="121" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D6" s="121" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="121" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B7" s="122" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C7" s="123" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D7" s="124" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="121" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B8" s="121" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="121" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B9" s="121" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C9" s="123" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D9" s="124" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="123" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B10" s="123" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="125" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B11" s="126" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="123"/>
+      <c r="B16" s="124"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="123"/>
+      <c r="B18" s="124"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="121"/>
+      <c r="B19" s="122"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="125"/>
+      <c r="B20" s="126"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26476,7 +27004,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD56"/>
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26549,46 +27077,46 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2245</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="100" t="s">
         <v>2330</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="99" t="s">
         <v>2331</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>2246</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>2332</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="99" t="s">
         <v>2333</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>2268</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>2376</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="99" t="s">
         <v>2377</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="99" t="s">
         <v>2258</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="99" t="s">
         <v>2355</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="99" t="s">
         <v>2356</v>
       </c>
     </row>
@@ -26599,7 +27127,7 @@
       <c r="B10" t="s">
         <v>2357</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>2358</v>
       </c>
     </row>
@@ -26614,40 +27142,40 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" s="104" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="104" t="s">
         <v>2202</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="116" t="s">
         <v>2205</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="104" t="s">
         <v>2217</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="97" t="s">
         <v>2247</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="98" t="s">
         <v>2334</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="97" t="s">
         <v>2335</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="97" t="s">
         <v>2228</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="98" t="s">
         <v>2294</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="97" t="s">
         <v>2295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2248</v>
       </c>
@@ -26691,7 +27219,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="107" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2276</v>
       </c>
@@ -26702,14 +27230,14 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106" t="s">
+    <row r="20" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="105" t="s">
         <v>2269</v>
       </c>
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="105" t="s">
         <v>2378</v>
       </c>
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="105" t="s">
         <v>2379</v>
       </c>
     </row>
@@ -26725,13 +27253,13 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="105" t="s">
         <v>2261</v>
       </c>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="105" t="s">
         <v>2366</v>
       </c>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="105" t="s">
         <v>2360</v>
       </c>
     </row>
@@ -26783,7 +27311,7 @@
       <c r="A27" t="s">
         <v>2250</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="96" t="s">
         <v>2340</v>
       </c>
       <c r="C27" t="s">
@@ -26794,7 +27322,7 @@
       <c r="A28" s="84" t="s">
         <v>2240</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="108" t="s">
         <v>2320</v>
       </c>
       <c r="C28" s="84" t="s">
@@ -26816,7 +27344,7 @@
       <c r="A30" t="s">
         <v>2241</v>
       </c>
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="96" t="s">
         <v>2322</v>
       </c>
       <c r="C30" t="s">
@@ -26845,7 +27373,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2277</v>
       </c>
@@ -26856,7 +27384,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2263</v>
       </c>
@@ -26867,7 +27395,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2243</v>
       </c>
@@ -26893,7 +27421,7 @@
       <c r="A37" t="s">
         <v>2251</v>
       </c>
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="96" t="s">
         <v>2342</v>
       </c>
       <c r="C37" t="s">
@@ -26985,7 +27513,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2222</v>
       </c>
@@ -27018,11 +27546,11 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="106" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="105" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2225</v>
       </c>
-      <c r="B49" s="97" t="s">
+      <c r="B49" s="96" t="s">
         <v>2288</v>
       </c>
       <c r="C49" t="s">
@@ -27062,7 +27590,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2255</v>
       </c>
@@ -27073,7 +27601,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2273</v>
       </c>
@@ -27095,7 +27623,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2279</v>
       </c>
@@ -27106,7 +27634,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2237</v>
       </c>
@@ -27140,57 +27668,57 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="106" t="s">
         <v>2274</v>
       </c>
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="106" t="s">
         <v>2385</v>
       </c>
-      <c r="C60" s="107" t="s">
+      <c r="C60" s="106" t="s">
         <v>2386</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="105" t="s">
+      <c r="A61" s="104" t="s">
         <v>2265</v>
       </c>
-      <c r="B61" s="105" t="s">
+      <c r="B61" s="104" t="s">
         <v>2372</v>
       </c>
-      <c r="C61" s="105" t="s">
+      <c r="C61" s="104" t="s">
         <v>2371</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="107" t="s">
+    <row r="62" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="106" t="s">
         <v>2232</v>
       </c>
-      <c r="B62" s="108" t="s">
+      <c r="B62" s="107" t="s">
         <v>2302</v>
       </c>
-      <c r="C62" s="107" t="s">
+      <c r="C62" s="106" t="s">
         <v>2303</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="103" t="s">
+      <c r="A63" s="102" t="s">
         <v>2233</v>
       </c>
-      <c r="B63" s="104" t="s">
+      <c r="B63" s="103" t="s">
         <v>2304</v>
       </c>
-      <c r="C63" s="103" t="s">
+      <c r="C63" s="102" t="s">
         <v>2305</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="103" t="s">
+      <c r="A64" s="102" t="s">
         <v>2266</v>
       </c>
-      <c r="B64" s="103" t="s">
+      <c r="B64" s="102" t="s">
         <v>2373</v>
       </c>
-      <c r="C64" s="103" t="s">
+      <c r="C64" s="102" t="s">
         <v>2374</v>
       </c>
     </row>
@@ -27209,7 +27737,7 @@
       <c r="A66" s="84" t="s">
         <v>2239</v>
       </c>
-      <c r="B66" s="110" t="s">
+      <c r="B66" s="108" t="s">
         <v>2318</v>
       </c>
       <c r="C66" s="84" t="s">
@@ -27244,8 +27772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68314FCC-A8A8-4269-8BC5-556EC713ABCD}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27278,7 +27806,7 @@
       <c r="A3" s="23" t="s">
         <v>2235</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="109" t="s">
         <v>2310</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -27289,7 +27817,7 @@
       <c r="A4" s="23" t="s">
         <v>2223</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="109" t="s">
         <v>2285</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -27300,7 +27828,7 @@
       <c r="A5" s="84" t="s">
         <v>2231</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="108" t="s">
         <v>2300</v>
       </c>
       <c r="C5" s="84" t="s">
@@ -27311,32 +27839,32 @@
       <c r="A6" s="84" t="s">
         <v>2222</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="108" t="s">
         <v>2282</v>
       </c>
       <c r="C6" s="84" t="s">
         <v>2283</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+    <row r="7" spans="1:3" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="113" t="s">
         <v>2252</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="113" t="s">
         <v>2344</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="113" t="s">
         <v>2345</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+    <row r="8" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="110" t="s">
         <v>2224</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="111" t="s">
         <v>2286</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="110" t="s">
         <v>2287</v>
       </c>
     </row>
@@ -27344,7 +27872,7 @@
       <c r="A9" s="84" t="s">
         <v>2225</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="115" t="s">
         <v>2288</v>
       </c>
       <c r="C9" s="84" t="s">
@@ -27355,14 +27883,14 @@
       <c r="A10" s="23" t="s">
         <v>2244</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="109" t="s">
         <v>2328</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>2329</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>2253</v>
       </c>
@@ -27377,54 +27905,54 @@
       <c r="A12" s="23" t="s">
         <v>2254</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="109" t="s">
         <v>2349</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>2348</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114" t="s">
+    <row r="13" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="112" t="s">
         <v>2255</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="112" t="s">
         <v>2350</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="112" t="s">
         <v>2348</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="114" t="s">
+    <row r="14" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="112" t="s">
         <v>2273</v>
       </c>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="112" t="s">
         <v>2383</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="112" t="s">
         <v>2384</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="114" t="s">
+    <row r="15" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="112" t="s">
         <v>2278</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="112" t="s">
         <v>2392</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="112" t="s">
         <v>2393</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="114" t="s">
+    <row r="16" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="112" t="s">
         <v>2279</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="112" t="s">
         <v>2394</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="112" t="s">
         <v>2395</v>
       </c>
     </row>
@@ -27432,7 +27960,7 @@
       <c r="A17" s="23" t="s">
         <v>2238</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="109" t="s">
         <v>2316</v>
       </c>
       <c r="C17" s="23" t="s">
@@ -27443,21 +27971,21 @@
       <c r="A18" s="84" t="s">
         <v>2214</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="108" t="s">
         <v>2215</v>
       </c>
       <c r="C18" s="84" t="s">
         <v>2219</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="112" t="s">
+    <row r="19" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="110" t="s">
         <v>2274</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="110" t="s">
         <v>2385</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="110" t="s">
         <v>2386</v>
       </c>
     </row>
@@ -27465,18 +27993,18 @@
       <c r="A20" s="84" t="s">
         <v>2232</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="108" t="s">
         <v>2302</v>
       </c>
       <c r="C20" s="84" t="s">
         <v>2303</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="84" t="s">
         <v>2233</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="108" t="s">
         <v>2304</v>
       </c>
       <c r="C21" s="84" t="s">
@@ -27484,13 +28012,13 @@
       </c>
     </row>
     <row r="22" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="110" t="s">
         <v>2203</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="111" t="s">
         <v>2306</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="110" t="s">
         <v>2307</v>
       </c>
     </row>
@@ -27498,7 +28026,7 @@
       <c r="A23" s="23" t="s">
         <v>2234</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="109" t="s">
         <v>2308</v>
       </c>
       <c r="C23" s="23" t="s">
@@ -27506,7 +28034,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="104" t="s">
         <v>2399</v>
       </c>
       <c r="B26" t="s">
